--- a/hardware/atum-breakout/rev_a/atum-breakout_bom.xlsx
+++ b/hardware/atum-breakout/rev_a/atum-breakout_bom.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/hardware/atum-breakout/rev_a/atum-breakout_bom.xlsx
+++ b/hardware/atum-breakout/rev_a/atum-breakout_bom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="108" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="99" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="134">
   <si>
     <t>Qty</t>
   </si>
@@ -314,22 +314,79 @@
     <t>667-EVQ-P2K02Q</t>
   </si>
   <si>
+    <t>White</t>
+  </si>
+  <si>
     <t>TEST_POINT_0.040IN</t>
   </si>
   <si>
     <t>TESTPOINT_0.040IN</t>
   </si>
   <si>
-    <t>TP1-TP37</t>
+    <t>TP1, TP29, TP30</t>
   </si>
   <si>
     <t>0.040in Test Point</t>
   </si>
   <si>
+    <t>5002K-ND</t>
+  </si>
+  <si>
+    <t>534-5001</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>TP2, TP3, TP4, TP9, TP10, TP11, TP12, TP21, TP22, TP23</t>
+  </si>
+  <si>
+    <t>5003K-ND</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>TP5, TP6, TP7, TP8, TP18, TP19, TP20, TP24, TP25, TP26, TP27, TP28</t>
+  </si>
+  <si>
+    <t>5004K-ND</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>TP13, TP14, TP15</t>
+  </si>
+  <si>
+    <t>5117K-ND</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>TP16, TP17</t>
+  </si>
+  <si>
+    <t>5116K-ND</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>TP31, TP32, TP33</t>
+  </si>
+  <si>
     <t>5001K-ND</t>
   </si>
   <si>
-    <t>534-5001</t>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>TP34, TP35, TP36, TP37</t>
+  </si>
+  <si>
+    <t>5000K-ND</t>
   </si>
   <si>
     <t>ATUM</t>
@@ -374,6 +431,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -395,6 +453,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -476,10 +535,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7:J20"/>
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -487,7 +546,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.47959183673469"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="33.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="60.0612244897959"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.9795918367347"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.8673469387755"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4183673469388"/>
@@ -927,77 +986,233 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>99</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>110</v>
       </c>
       <c r="F20" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="H20" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="C21" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="F21" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>114</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
